--- a/contents/cms/file_template/groupList-template.xlsx
+++ b/contents/cms/file_template/groupList-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="420" yWindow="5775" windowWidth="26400" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>TmallSalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JdSalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>brand</t>
   </si>
@@ -37,19 +29,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>priceMsrp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TmallNumiid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JdNumiid</t>
+    <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,15 +423,15 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
@@ -461,35 +441,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/contents/cms/file_template/groupList-template.xlsx
+++ b/contents/cms/file_template/groupList-template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>brand</t>
   </si>
@@ -31,13 +31,31 @@
   <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>款号</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>主类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称英语</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称中文</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +89,14 @@
       <name val="DengXian"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,10 +146,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -439,7 +470,7 @@
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,11 +486,23 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
